--- a/aat/src/resource/CCD_CNP_27_CaseType_Security_Classification_Test.xlsx
+++ b/aat/src/resource/CCD_CNP_27_CaseType_Security_Classification_Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="29180" windowHeight="16620" tabRatio="823"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="29180" windowHeight="16620" tabRatio="823" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="281">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -756,9 +756,6 @@
     <t>Third tab</t>
   </si>
   <si>
-    <t>AAT</t>
-  </si>
-  <si>
     <t>auto.test.cnp@gmail.com</t>
   </si>
   <si>
@@ -796,9 +793,6 @@
   </si>
   <si>
     <t>DateTime</t>
-  </si>
-  <si>
-    <t>MAPPER</t>
   </si>
   <si>
     <t>DocumentField</t>
@@ -906,6 +900,9 @@
   </si>
   <si>
     <t>Auto Test 2</t>
+  </si>
+  <si>
+    <t>RESTRICTED</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1834,10 +1831,10 @@
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>24</v>
@@ -1864,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1935,7 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>134</v>
@@ -1956,7 +1953,7 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>145</v>
@@ -1974,7 +1971,7 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>134</v>
@@ -1992,7 +1989,7 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>145</v>
@@ -2004,15 +2001,51 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="21">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F7">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F9">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A7">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B7">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B9">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2025,7 +2058,7 @@
           <x14:formula1>
             <xm:f>CaseField!$D$4:$D$35</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D7</xm:sqref>
+          <xm:sqref>D4:D9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2038,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2113,7 +2146,7 @@
       </c>
       <c r="B4" s="26"/>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>134</v>
@@ -2131,7 +2164,7 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>134</v>
@@ -2143,15 +2176,33 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A5">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A6">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B5">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B6">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F5">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F6">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -2164,7 +2215,7 @@
           <x14:formula1>
             <xm:f>CaseField!$D$4:$D$35</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D5</xm:sqref>
+          <xm:sqref>D4:D6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2177,10 +2228,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2251,7 +2302,7 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>134</v>
@@ -2269,7 +2320,7 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>145</v>
@@ -2287,7 +2338,7 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>134</v>
@@ -2305,7 +2356,7 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>145</v>
@@ -2317,15 +2368,51 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="21">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F7">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F9">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A7">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B7">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B9">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2338,7 +2425,7 @@
           <x14:formula1>
             <xm:f>CaseField!$D$4:$D$35</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D7</xm:sqref>
+          <xm:sqref>D4:D9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2351,10 +2438,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C20"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2448,7 +2535,7 @@
       </c>
       <c r="B4" s="27"/>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>56</v>
@@ -2475,7 +2562,7 @@
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>56</v>
@@ -2502,7 +2589,7 @@
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>56</v>
@@ -2529,7 +2616,7 @@
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>56</v>
@@ -2556,7 +2643,7 @@
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>56</v>
@@ -2583,7 +2670,7 @@
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>56</v>
@@ -2610,7 +2697,7 @@
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>56</v>
@@ -2637,7 +2724,7 @@
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>56</v>
@@ -2652,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I11" s="28">
         <v>3</v>
@@ -2664,7 +2751,7 @@
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>56</v>
@@ -2691,7 +2778,7 @@
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>56</v>
@@ -2718,7 +2805,7 @@
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>56</v>
@@ -2733,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I14" s="28">
         <v>6</v>
@@ -2745,7 +2832,7 @@
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>56</v>
@@ -2772,7 +2859,7 @@
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>56</v>
@@ -2799,7 +2886,7 @@
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>56</v>
@@ -2814,7 +2901,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I17" s="28">
         <v>2</v>
@@ -2826,7 +2913,7 @@
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>56</v>
@@ -2841,7 +2928,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I18" s="28">
         <v>3</v>
@@ -2853,7 +2940,7 @@
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>56</v>
@@ -2868,7 +2955,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I19" s="28">
         <v>4</v>
@@ -2880,22 +2967,22 @@
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G20" s="28">
         <v>4</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I20" s="28">
         <v>1</v>
@@ -2907,7 +2994,7 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>56</v>
@@ -2934,7 +3021,7 @@
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>56</v>
@@ -2961,7 +3048,7 @@
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>56</v>
@@ -2988,7 +3075,7 @@
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>56</v>
@@ -3015,7 +3102,7 @@
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>56</v>
@@ -3042,7 +3129,7 @@
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>56</v>
@@ -3069,7 +3156,7 @@
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>56</v>
@@ -3096,7 +3183,7 @@
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>56</v>
@@ -3111,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I28" s="28">
         <v>3</v>
@@ -3123,7 +3210,7 @@
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>56</v>
@@ -3150,7 +3237,7 @@
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>56</v>
@@ -3177,7 +3264,7 @@
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>56</v>
@@ -3192,7 +3279,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I31" s="28">
         <v>6</v>
@@ -3204,7 +3291,7 @@
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>56</v>
@@ -3225,13 +3312,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="27">
         <v>42736</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>56</v>
@@ -3252,13 +3339,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="27">
         <v>42736</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>56</v>
@@ -3273,19 +3360,19 @@
         <v>3</v>
       </c>
       <c r="H34" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I34" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="27">
         <v>42736</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>56</v>
@@ -3300,48 +3387,496 @@
         <v>3</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I35" s="28">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="27">
         <v>42736</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G36" s="28">
         <v>4</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I36" s="28">
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" s="28">
+        <v>1</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" s="28">
+        <v>1</v>
+      </c>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G38" s="28">
+        <v>1</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" s="28">
+        <v>2</v>
+      </c>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" s="28">
+        <v>1</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="28">
+        <v>3</v>
+      </c>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G40" s="28">
+        <v>1</v>
+      </c>
+      <c r="H40" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="28">
+        <v>4</v>
+      </c>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" s="28">
+        <v>1</v>
+      </c>
+      <c r="H41" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41" s="28">
+        <v>5</v>
+      </c>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G42" s="28">
+        <v>2</v>
+      </c>
+      <c r="H42" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="I42" s="28">
+        <v>1</v>
+      </c>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G43" s="28">
+        <v>2</v>
+      </c>
+      <c r="H43" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="I43" s="28">
+        <v>2</v>
+      </c>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G44" s="28">
+        <v>2</v>
+      </c>
+      <c r="H44" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44" s="28">
+        <v>3</v>
+      </c>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G45" s="28">
+        <v>2</v>
+      </c>
+      <c r="H45" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="I45" s="28">
+        <v>4</v>
+      </c>
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G46" s="28">
+        <v>2</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="I46" s="28">
+        <v>5</v>
+      </c>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G47" s="28">
+        <v>2</v>
+      </c>
+      <c r="H47" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="I47" s="28">
+        <v>6</v>
+      </c>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G48" s="28">
+        <v>2</v>
+      </c>
+      <c r="H48" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="I48" s="28">
+        <v>7</v>
+      </c>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" s="28">
+        <v>3</v>
+      </c>
+      <c r="H49" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="I49" s="28">
+        <v>1</v>
+      </c>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="G50" s="28">
+        <v>3</v>
+      </c>
+      <c r="H50" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="I50" s="28">
+        <v>2</v>
+      </c>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="G51" s="28">
+        <v>3</v>
+      </c>
+      <c r="H51" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="I51" s="28">
+        <v>3</v>
+      </c>
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="G52" s="28">
+        <v>4</v>
+      </c>
+      <c r="H52" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="I52" s="28">
+        <v>1</v>
+      </c>
+      <c r="J52" s="14"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G36 I4:I36">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G52 I4:I52">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A36">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A52">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B36">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B52">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3413,13 +3948,13 @@
         <v>42736</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>184</v>
@@ -3441,10 +3976,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3506,10 +4041,10 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>124</v>
@@ -3521,12 +4056,27 @@
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E5" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3543,10 +4093,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3618,13 +4168,13 @@
       </c>
       <c r="B4" s="53"/>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>184</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F4" s="74" t="s">
         <v>124</v>
@@ -3636,13 +4186,13 @@
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F5" s="74" t="s">
         <v>124</v>
@@ -3654,13 +4204,13 @@
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F6" s="74" t="s">
         <v>124</v>
@@ -3672,13 +4222,13 @@
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>184</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F7" s="74" t="s">
         <v>124</v>
@@ -3690,13 +4240,13 @@
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>185</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F8" s="74" t="s">
         <v>124</v>
@@ -3708,15 +4258,69 @@
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>188</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F9" s="74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="59">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="59">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="59">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="74" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3733,10 +4337,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3805,13 +4409,13 @@
         <v>42736</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>189</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>124</v>
@@ -3822,13 +4426,13 @@
         <v>42736</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>124</v>
@@ -3839,13 +4443,13 @@
         <v>42736</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>124</v>
@@ -3856,13 +4460,13 @@
         <v>42736</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>124</v>
@@ -3873,13 +4477,13 @@
         <v>42736</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>124</v>
@@ -3890,13 +4494,13 @@
         <v>42736</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>124</v>
@@ -3907,13 +4511,13 @@
         <v>42736</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>189</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>124</v>
@@ -3924,13 +4528,13 @@
         <v>42736</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>191</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>124</v>
@@ -3941,13 +4545,13 @@
         <v>42736</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>193</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>124</v>
@@ -3958,13 +4562,13 @@
         <v>42736</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>195</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>124</v>
@@ -3975,13 +4579,13 @@
         <v>42736</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>197</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>124</v>
@@ -3992,15 +4596,123 @@
         <v>42736</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>205</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F15" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4017,10 +4729,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4088,13 +4800,13 @@
         <v>42736</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>134</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>124</v>
@@ -4105,13 +4817,13 @@
         <v>42736</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>124</v>
@@ -4122,13 +4834,13 @@
         <v>42736</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>124</v>
@@ -4139,13 +4851,13 @@
         <v>42736</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>124</v>
@@ -4156,13 +4868,13 @@
         <v>42736</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>124</v>
@@ -4173,13 +4885,13 @@
         <v>42736</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>124</v>
@@ -4190,13 +4902,13 @@
         <v>42736</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>124</v>
@@ -4207,13 +4919,13 @@
         <v>42736</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>124</v>
@@ -4224,13 +4936,13 @@
         <v>42736</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>124</v>
@@ -4241,13 +4953,13 @@
         <v>42736</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>124</v>
@@ -4258,13 +4970,13 @@
         <v>42736</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>169</v>
       </c>
       <c r="E14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>124</v>
@@ -4275,13 +4987,13 @@
         <v>42736</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>124</v>
@@ -4293,13 +5005,13 @@
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>124</v>
@@ -4310,13 +5022,13 @@
         <v>42736</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>224</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>124</v>
@@ -4328,13 +5040,13 @@
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>124</v>
@@ -4345,13 +5057,13 @@
         <v>42736</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>124</v>
@@ -4362,13 +5074,13 @@
         <v>42736</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>124</v>
@@ -4379,13 +5091,13 @@
         <v>42736</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>134</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>124</v>
@@ -4396,13 +5108,13 @@
         <v>42736</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>136</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>124</v>
@@ -4413,13 +5125,13 @@
         <v>42736</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>138</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>124</v>
@@ -4430,13 +5142,13 @@
         <v>42736</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>143</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>124</v>
@@ -4447,13 +5159,13 @@
         <v>42736</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>145</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>124</v>
@@ -4464,13 +5176,13 @@
         <v>42736</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>149</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>124</v>
@@ -4481,13 +5193,13 @@
         <v>42736</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>157</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>124</v>
@@ -4498,13 +5210,13 @@
         <v>42736</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>124</v>
@@ -4515,13 +5227,13 @@
         <v>42736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D29" s="42" t="s">
         <v>155</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>124</v>
@@ -4532,13 +5244,13 @@
         <v>42736</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D30" s="42" t="s">
         <v>159</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>124</v>
@@ -4549,13 +5261,13 @@
         <v>42736</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>169</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>124</v>
@@ -4566,13 +5278,13 @@
         <v>42736</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>124</v>
@@ -4583,13 +5295,13 @@
         <v>42736</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>124</v>
@@ -4600,13 +5312,13 @@
         <v>42736</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>224</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>124</v>
@@ -4617,13 +5329,13 @@
         <v>42736</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>124</v>
@@ -4634,15 +5346,321 @@
         <v>42736</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F36" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="72">
+        <v>42736</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F53" s="24" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4659,10 +5677,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4679,7 +5697,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="76" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1" s="77" t="s">
         <v>1</v>
@@ -4698,19 +5716,19 @@
       <c r="A2" s="82"/>
       <c r="B2" s="82"/>
       <c r="C2" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="F2" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="G2" s="83" t="s">
         <v>272</v>
-      </c>
-      <c r="F2" s="83" t="s">
-        <v>273</v>
-      </c>
-      <c r="G2" s="83" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.3">
@@ -4741,7 +5759,7 @@
         <v>42736</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>224</v>
@@ -4750,7 +5768,7 @@
         <v>214</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G4" s="81" t="s">
         <v>124</v>
@@ -4761,7 +5779,7 @@
         <v>42736</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>224</v>
@@ -4770,7 +5788,7 @@
         <v>216</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G5" s="81" t="s">
         <v>124</v>
@@ -4781,7 +5799,7 @@
         <v>42736</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>224</v>
@@ -4790,9 +5808,129 @@
         <v>222</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G6" s="81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="72">
+        <v>42736</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" s="81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="72">
+        <v>42736</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="72">
+        <v>42736</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="72">
+        <v>42736</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="72">
+        <v>42736</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="G11" s="81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="72">
+        <v>42736</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" s="81" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4806,8 +5944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4902,16 +6040,16 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I4" t="s">
         <v>117</v>
@@ -4923,19 +6061,19 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>279</v>
-      </c>
       <c r="I5" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4944,21 +6082,21 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4982,10 +6120,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="G34" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5103,7 +6241,7 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>134</v>
@@ -5132,7 +6270,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>136</v>
@@ -5161,7 +6299,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>138</v>
@@ -5190,7 +6328,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>143</v>
@@ -5219,7 +6357,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>145</v>
@@ -5248,7 +6386,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>149</v>
@@ -5277,7 +6415,7 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>157</v>
@@ -5306,19 +6444,19 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D11" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="F11" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="G11" s="42" t="s">
         <v>245</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>246</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28" t="s">
@@ -5335,7 +6473,7 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>155</v>
@@ -5364,7 +6502,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>159</v>
@@ -5395,7 +6533,7 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>169</v>
@@ -5426,16 +6564,16 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D15" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="F15" s="42" t="s">
         <v>237</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>238</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>80</v>
@@ -5457,7 +6595,7 @@
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>224</v>
@@ -5486,19 +6624,19 @@
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D17" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="F17" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="G17" s="42" t="s">
         <v>241</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>242</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="28" t="s">
@@ -5515,19 +6653,19 @@
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D18" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="G18" s="42" t="s">
         <v>249</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>251</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="28" t="s">
@@ -5544,22 +6682,22 @@
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D19" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="G19" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="H19" s="42" t="s">
         <v>254</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>256</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>26</v>
@@ -5575,19 +6713,19 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D20" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="G20" s="75" t="s">
         <v>264</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" s="75" t="s">
-        <v>266</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="28" t="s">
@@ -5604,7 +6742,7 @@
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>134</v>
@@ -5624,7 +6762,7 @@
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="28" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5633,7 +6771,7 @@
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>136</v>
@@ -5653,7 +6791,7 @@
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="28" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5662,7 +6800,7 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>138</v>
@@ -5682,7 +6820,7 @@
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="28" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5691,7 +6829,7 @@
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>143</v>
@@ -5711,7 +6849,7 @@
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="28" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5720,7 +6858,7 @@
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>145</v>
@@ -5740,7 +6878,7 @@
       </c>
       <c r="J25" s="28"/>
       <c r="K25" s="28" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5749,7 +6887,7 @@
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>149</v>
@@ -5769,7 +6907,7 @@
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="28" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5778,7 +6916,7 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>157</v>
@@ -5798,7 +6936,7 @@
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="28" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5807,19 +6945,19 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D28" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="F28" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="G28" s="42" t="s">
         <v>245</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>246</v>
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28" t="s">
@@ -5827,7 +6965,7 @@
       </c>
       <c r="J28" s="28"/>
       <c r="K28" s="28" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5836,7 +6974,7 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D29" s="42" t="s">
         <v>155</v>
@@ -5856,7 +6994,7 @@
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="28" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5865,7 +7003,7 @@
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D30" s="42" t="s">
         <v>159</v>
@@ -5887,7 +7025,7 @@
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="28" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5896,7 +7034,7 @@
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>169</v>
@@ -5918,7 +7056,7 @@
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="28" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5927,16 +7065,16 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D32" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="F32" s="42" t="s">
         <v>237</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>238</v>
       </c>
       <c r="G32" s="42" t="s">
         <v>80</v>
@@ -5949,7 +7087,7 @@
       </c>
       <c r="J32" s="28"/>
       <c r="K32" s="28" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5958,7 +7096,7 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D33" s="42" t="s">
         <v>224</v>
@@ -5978,7 +7116,7 @@
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="28" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5987,19 +7125,19 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D34" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="F34" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="G34" s="42" t="s">
         <v>241</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>242</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="28" t="s">
@@ -6007,7 +7145,7 @@
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="28" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6016,29 +7154,29 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D35" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="G35" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="H35" s="42" t="s">
         <v>254</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>256</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="28" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6047,19 +7185,19 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D36" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="G36" s="75" t="s">
         <v>264</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="G36" s="75" t="s">
-        <v>266</v>
       </c>
       <c r="H36" s="42"/>
       <c r="I36" s="28" t="s">
@@ -6067,15 +7205,487 @@
       </c>
       <c r="J36" s="28"/>
       <c r="K36" s="28" t="s">
-        <v>117</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F47" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="G47" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="H47" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="G48" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="G49" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H49" s="42"/>
+      <c r="I49" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="G50" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="H50" s="42"/>
+      <c r="I50" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="H51" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="E52" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="F52" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="G52" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="H52" s="42"/>
+      <c r="I52" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A36">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A52">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B36">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B52">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6094,7 +7704,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6276,13 +7886,13 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6291,13 +7901,13 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6306,13 +7916,13 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="D14" s="42" t="s">
-        <v>258</v>
-      </c>
       <c r="E14" s="42" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -6338,8 +7948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6629,10 +8239,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6705,7 +8315,7 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>184</v>
@@ -6724,7 +8334,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>185</v>
@@ -6743,7 +8353,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>188</v>
@@ -6762,7 +8372,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>184</v>
@@ -6781,7 +8391,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>185</v>
@@ -6800,7 +8410,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>188</v>
@@ -6813,15 +8423,72 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G9">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G12">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A12">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B9">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B12">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6837,10 +8504,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6991,7 +8658,7 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>189</v>
@@ -7020,7 +8687,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>191</v>
@@ -7057,7 +8724,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>193</v>
@@ -7094,7 +8761,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>195</v>
@@ -7131,7 +8798,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>197</v>
@@ -7168,7 +8835,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>205</v>
@@ -7205,7 +8872,7 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>189</v>
@@ -7228,7 +8895,7 @@
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
       <c r="P10" s="14" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="24" t="s">
         <v>73</v>
@@ -7240,7 +8907,7 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>191</v>
@@ -7265,7 +8932,7 @@
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
       <c r="P11" s="14" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="24" t="s">
         <v>73</v>
@@ -7277,7 +8944,7 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>193</v>
@@ -7302,7 +8969,7 @@
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
       <c r="P12" s="14" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="Q12" s="24" t="s">
         <v>73</v>
@@ -7314,7 +8981,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>195</v>
@@ -7339,7 +9006,7 @@
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
       <c r="P13" s="14" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="24" t="s">
         <v>73</v>
@@ -7351,7 +9018,7 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>197</v>
@@ -7376,7 +9043,7 @@
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
       <c r="P14" s="14" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="24" t="s">
         <v>73</v>
@@ -7388,7 +9055,7 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>205</v>
@@ -7413,21 +9080,205 @@
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="P15" s="14" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="Q15" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28">
+        <v>1</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28">
+        <v>2</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28">
+        <v>3</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28">
+        <v>4</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28">
+        <v>5</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28">
+        <v>6</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q21" s="24" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G15">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G21">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B15">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B21">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="A4:A15">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="A4:A21">
       <formula1>42736</formula1>
     </dataValidation>
   </dataValidations>
@@ -7443,10 +9294,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView topLeftCell="F85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C48"/>
+    <sheetView topLeftCell="H133" workbookViewId="0">
+      <selection activeCell="M127" sqref="M127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7584,7 +9435,7 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>189</v>
@@ -7621,7 +9472,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>189</v>
@@ -7658,7 +9509,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>189</v>
@@ -7695,7 +9546,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>189</v>
@@ -7732,7 +9583,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>189</v>
@@ -7769,7 +9620,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>189</v>
@@ -7806,7 +9657,7 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>189</v>
@@ -7843,13 +9694,13 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>189</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F11" s="28">
         <v>3</v>
@@ -7880,7 +9731,7 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>189</v>
@@ -7917,7 +9768,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>189</v>
@@ -7954,13 +9805,13 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>189</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F14" s="28">
         <v>6</v>
@@ -7991,7 +9842,7 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>189</v>
@@ -8028,7 +9879,7 @@
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>189</v>
@@ -8065,13 +9916,13 @@
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>189</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F17" s="28">
         <v>2</v>
@@ -8102,13 +9953,13 @@
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>189</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F18" s="28">
         <v>3</v>
@@ -8139,13 +9990,13 @@
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>189</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F19" s="28">
         <v>4</v>
@@ -8176,7 +10027,7 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>197</v>
@@ -8213,7 +10064,7 @@
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D21" s="42" t="s">
         <v>197</v>
@@ -8250,7 +10101,7 @@
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>197</v>
@@ -8287,7 +10138,7 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>197</v>
@@ -8324,7 +10175,7 @@
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>197</v>
@@ -8361,7 +10212,7 @@
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>197</v>
@@ -8398,7 +10249,7 @@
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>197</v>
@@ -8435,13 +10286,13 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>197</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F27" s="28">
         <v>3</v>
@@ -8472,7 +10323,7 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>197</v>
@@ -8509,7 +10360,7 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D29" s="42" t="s">
         <v>197</v>
@@ -8546,7 +10397,7 @@
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D30" s="42" t="s">
         <v>197</v>
@@ -8583,7 +10434,7 @@
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>197</v>
@@ -8620,13 +10471,13 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>197</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F32" s="28">
         <v>2</v>
@@ -8657,13 +10508,13 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D33" s="42" t="s">
         <v>197</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F33" s="28">
         <v>3</v>
@@ -8694,13 +10545,13 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>197</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F34" s="28">
         <v>4</v>
@@ -8731,7 +10582,7 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>205</v>
@@ -8768,7 +10619,7 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D36" s="42" t="s">
         <v>205</v>
@@ -8805,7 +10656,7 @@
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D37" s="42" t="s">
         <v>205</v>
@@ -8842,7 +10693,7 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D38" s="42" t="s">
         <v>205</v>
@@ -8879,7 +10730,7 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D39" s="42" t="s">
         <v>205</v>
@@ -8916,7 +10767,7 @@
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D40" s="42" t="s">
         <v>205</v>
@@ -8953,7 +10804,7 @@
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D41" s="42" t="s">
         <v>205</v>
@@ -8990,13 +10841,13 @@
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D42" s="42" t="s">
         <v>205</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F42" s="28">
         <v>3</v>
@@ -9027,7 +10878,7 @@
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D43" s="42" t="s">
         <v>205</v>
@@ -9064,7 +10915,7 @@
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D44" s="42" t="s">
         <v>205</v>
@@ -9101,7 +10952,7 @@
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D45" s="42" t="s">
         <v>205</v>
@@ -9138,7 +10989,7 @@
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D46" s="42" t="s">
         <v>205</v>
@@ -9175,13 +11026,13 @@
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D47" s="42" t="s">
         <v>205</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F47" s="28">
         <v>2</v>
@@ -9212,13 +11063,13 @@
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D48" s="42" t="s">
         <v>205</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F48" s="28">
         <v>3</v>
@@ -9249,7 +11100,7 @@
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D49" s="42" t="s">
         <v>189</v>
@@ -9286,7 +11137,7 @@
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D50" s="42" t="s">
         <v>189</v>
@@ -9323,7 +11174,7 @@
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D51" s="42" t="s">
         <v>189</v>
@@ -9360,7 +11211,7 @@
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D52" s="42" t="s">
         <v>189</v>
@@ -9397,7 +11248,7 @@
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D53" s="42" t="s">
         <v>189</v>
@@ -9434,7 +11285,7 @@
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D54" s="42" t="s">
         <v>189</v>
@@ -9471,7 +11322,7 @@
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D55" s="42" t="s">
         <v>189</v>
@@ -9508,13 +11359,13 @@
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D56" s="42" t="s">
         <v>189</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F56" s="28">
         <v>3</v>
@@ -9545,7 +11396,7 @@
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D57" s="42" t="s">
         <v>189</v>
@@ -9582,7 +11433,7 @@
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D58" s="42" t="s">
         <v>189</v>
@@ -9619,13 +11470,13 @@
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D59" s="42" t="s">
         <v>189</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F59" s="28">
         <v>6</v>
@@ -9656,7 +11507,7 @@
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D60" s="42" t="s">
         <v>189</v>
@@ -9693,7 +11544,7 @@
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D61" s="42" t="s">
         <v>189</v>
@@ -9730,13 +11581,13 @@
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D62" s="42" t="s">
         <v>189</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F62" s="28">
         <v>2</v>
@@ -9767,13 +11618,13 @@
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D63" s="42" t="s">
         <v>189</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F63" s="28">
         <v>3</v>
@@ -9804,7 +11655,7 @@
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D64" s="42" t="s">
         <v>197</v>
@@ -9841,7 +11692,7 @@
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D65" s="42" t="s">
         <v>197</v>
@@ -9878,7 +11729,7 @@
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D66" s="42" t="s">
         <v>197</v>
@@ -9915,7 +11766,7 @@
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D67" s="42" t="s">
         <v>197</v>
@@ -9952,7 +11803,7 @@
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D68" s="42" t="s">
         <v>197</v>
@@ -9989,7 +11840,7 @@
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D69" s="42" t="s">
         <v>197</v>
@@ -10026,7 +11877,7 @@
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D70" s="42" t="s">
         <v>197</v>
@@ -10063,13 +11914,13 @@
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D71" s="42" t="s">
         <v>197</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F71" s="28">
         <v>3</v>
@@ -10100,7 +11951,7 @@
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D72" s="42" t="s">
         <v>197</v>
@@ -10137,7 +11988,7 @@
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D73" s="42" t="s">
         <v>197</v>
@@ -10174,7 +12025,7 @@
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D74" s="42" t="s">
         <v>197</v>
@@ -10211,7 +12062,7 @@
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D75" s="42" t="s">
         <v>197</v>
@@ -10248,13 +12099,13 @@
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D76" s="42" t="s">
         <v>197</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F76" s="28">
         <v>2</v>
@@ -10285,13 +12136,13 @@
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D77" s="42" t="s">
         <v>197</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F77" s="28">
         <v>3</v>
@@ -10322,7 +12173,7 @@
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D78" s="42" t="s">
         <v>205</v>
@@ -10359,7 +12210,7 @@
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D79" s="42" t="s">
         <v>205</v>
@@ -10396,7 +12247,7 @@
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D80" s="42" t="s">
         <v>205</v>
@@ -10433,7 +12284,7 @@
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D81" s="42" t="s">
         <v>205</v>
@@ -10470,7 +12321,7 @@
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D82" s="42" t="s">
         <v>205</v>
@@ -10507,7 +12358,7 @@
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D83" s="42" t="s">
         <v>205</v>
@@ -10544,7 +12395,7 @@
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D84" s="42" t="s">
         <v>205</v>
@@ -10581,13 +12432,13 @@
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D85" s="42" t="s">
         <v>205</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F85" s="28">
         <v>3</v>
@@ -10618,7 +12469,7 @@
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D86" s="42" t="s">
         <v>205</v>
@@ -10655,7 +12506,7 @@
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D87" s="42" t="s">
         <v>205</v>
@@ -10692,7 +12543,7 @@
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D88" s="42" t="s">
         <v>205</v>
@@ -10729,7 +12580,7 @@
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D89" s="42" t="s">
         <v>205</v>
@@ -10766,13 +12617,13 @@
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D90" s="42" t="s">
         <v>205</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F90" s="28">
         <v>2</v>
@@ -10803,13 +12654,13 @@
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D91" s="42" t="s">
         <v>205</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F91" s="28">
         <v>3</v>
@@ -10834,12 +12685,1646 @@
         <v>26</v>
       </c>
     </row>
+    <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B92" s="13"/>
+      <c r="C92" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F92" s="28">
+        <v>1</v>
+      </c>
+      <c r="G92" s="28"/>
+      <c r="H92" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J92" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K92" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L92" s="14">
+        <v>1</v>
+      </c>
+      <c r="M92" s="14"/>
+      <c r="O92" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D93" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" s="28">
+        <v>2</v>
+      </c>
+      <c r="G93" s="28"/>
+      <c r="H93" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J93" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K93" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L93" s="14">
+        <v>1</v>
+      </c>
+      <c r="M93" s="14"/>
+      <c r="O93" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F94" s="28">
+        <v>3</v>
+      </c>
+      <c r="G94" s="28"/>
+      <c r="H94" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J94" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K94" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L94" s="14">
+        <v>1</v>
+      </c>
+      <c r="M94" s="14"/>
+      <c r="O94" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B95" s="13"/>
+      <c r="C95" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E95" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F95" s="28">
+        <v>4</v>
+      </c>
+      <c r="G95" s="28"/>
+      <c r="H95" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J95" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K95" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L95" s="14">
+        <v>1</v>
+      </c>
+      <c r="M95" s="14"/>
+      <c r="O95" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="C96" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D96" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E96" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="F96" s="28">
+        <v>5</v>
+      </c>
+      <c r="G96" s="28"/>
+      <c r="H96" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J96" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K96" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L96" s="14">
+        <v>1</v>
+      </c>
+      <c r="M96" s="14"/>
+      <c r="O96" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D97" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E97" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="F97" s="28">
+        <v>1</v>
+      </c>
+      <c r="G97" s="28"/>
+      <c r="H97" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J97" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K97" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L97" s="14">
+        <v>2</v>
+      </c>
+      <c r="M97" s="14"/>
+      <c r="O97" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D98" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E98" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F98" s="28">
+        <v>2</v>
+      </c>
+      <c r="G98" s="28"/>
+      <c r="H98" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J98" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K98" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L98" s="14">
+        <v>2</v>
+      </c>
+      <c r="M98" s="14"/>
+      <c r="O98" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B99" s="13"/>
+      <c r="C99" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D99" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E99" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="F99" s="28">
+        <v>3</v>
+      </c>
+      <c r="G99" s="28"/>
+      <c r="H99" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J99" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K99" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L99" s="14">
+        <v>2</v>
+      </c>
+      <c r="M99" s="14"/>
+      <c r="O99" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D100" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E100" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F100" s="28">
+        <v>4</v>
+      </c>
+      <c r="G100" s="28"/>
+      <c r="H100" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I100" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J100" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K100" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L100" s="14">
+        <v>2</v>
+      </c>
+      <c r="M100" s="14"/>
+      <c r="O100" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="C101" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D101" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E101" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F101" s="28">
+        <v>5</v>
+      </c>
+      <c r="G101" s="28"/>
+      <c r="H101" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I101" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J101" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K101" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L101" s="14">
+        <v>2</v>
+      </c>
+      <c r="M101" s="14"/>
+      <c r="O101" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="C102" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D102" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E102" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="F102" s="28">
+        <v>6</v>
+      </c>
+      <c r="G102" s="28"/>
+      <c r="H102" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I102" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J102" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K102" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L102" s="14">
+        <v>2</v>
+      </c>
+      <c r="M102" s="14"/>
+      <c r="O102" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B103" s="13"/>
+      <c r="C103" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D103" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E103" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F103" s="28">
+        <v>7</v>
+      </c>
+      <c r="G103" s="28"/>
+      <c r="H103" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I103" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J103" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K103" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L103" s="14">
+        <v>2</v>
+      </c>
+      <c r="M103" s="14"/>
+      <c r="O103" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B104" s="13"/>
+      <c r="C104" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D104" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E104" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F104" s="28">
+        <v>1</v>
+      </c>
+      <c r="G104" s="28"/>
+      <c r="H104" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J104" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K104" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L104" s="14">
+        <v>3</v>
+      </c>
+      <c r="M104" s="14"/>
+      <c r="O104" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B105" s="13"/>
+      <c r="C105" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D105" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E105" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="F105" s="28">
+        <v>2</v>
+      </c>
+      <c r="G105" s="28"/>
+      <c r="H105" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J105" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K105" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L105" s="14">
+        <v>3</v>
+      </c>
+      <c r="M105" s="14"/>
+      <c r="O105" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B106" s="13"/>
+      <c r="C106" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D106" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E106" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="F106" s="28">
+        <v>3</v>
+      </c>
+      <c r="G106" s="28"/>
+      <c r="H106" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J106" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K106" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L106" s="14">
+        <v>3</v>
+      </c>
+      <c r="M106" s="14"/>
+      <c r="O106" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D107" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E107" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F107" s="28">
+        <v>1</v>
+      </c>
+      <c r="G107" s="28"/>
+      <c r="H107" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I107" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J107" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K107" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L107" s="14">
+        <v>1</v>
+      </c>
+      <c r="M107" s="14"/>
+      <c r="O107" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B108" s="13"/>
+      <c r="C108" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D108" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E108" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F108" s="28">
+        <v>2</v>
+      </c>
+      <c r="G108" s="28"/>
+      <c r="H108" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J108" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K108" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L108" s="14">
+        <v>1</v>
+      </c>
+      <c r="M108" s="14"/>
+      <c r="O108" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="C109" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D109" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E109" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F109" s="28">
+        <v>3</v>
+      </c>
+      <c r="G109" s="28"/>
+      <c r="H109" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I109" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J109" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K109" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L109" s="14">
+        <v>1</v>
+      </c>
+      <c r="M109" s="14"/>
+      <c r="O109" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="C110" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D110" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E110" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F110" s="28">
+        <v>4</v>
+      </c>
+      <c r="G110" s="28"/>
+      <c r="H110" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I110" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J110" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K110" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L110" s="14">
+        <v>1</v>
+      </c>
+      <c r="M110" s="14"/>
+      <c r="O110" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B111" s="13"/>
+      <c r="C111" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D111" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E111" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="F111" s="28">
+        <v>5</v>
+      </c>
+      <c r="G111" s="28"/>
+      <c r="H111" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I111" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J111" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K111" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L111" s="14">
+        <v>1</v>
+      </c>
+      <c r="M111" s="14"/>
+      <c r="O111" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B112" s="13"/>
+      <c r="C112" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D112" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E112" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="F112" s="28">
+        <v>1</v>
+      </c>
+      <c r="G112" s="28"/>
+      <c r="H112" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I112" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J112" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K112" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L112" s="14">
+        <v>2</v>
+      </c>
+      <c r="M112" s="14"/>
+      <c r="O112" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B113" s="13"/>
+      <c r="C113" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D113" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E113" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F113" s="28">
+        <v>2</v>
+      </c>
+      <c r="G113" s="28"/>
+      <c r="H113" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I113" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J113" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K113" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L113" s="14">
+        <v>2</v>
+      </c>
+      <c r="M113" s="14"/>
+      <c r="O113" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B114" s="13"/>
+      <c r="C114" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D114" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E114" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="F114" s="28">
+        <v>3</v>
+      </c>
+      <c r="G114" s="28"/>
+      <c r="H114" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I114" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J114" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K114" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L114" s="14">
+        <v>2</v>
+      </c>
+      <c r="M114" s="14"/>
+      <c r="O114" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B115" s="13"/>
+      <c r="C115" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D115" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E115" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F115" s="28">
+        <v>4</v>
+      </c>
+      <c r="G115" s="28"/>
+      <c r="H115" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J115" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K115" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L115" s="14">
+        <v>2</v>
+      </c>
+      <c r="M115" s="14"/>
+      <c r="O115" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B116" s="13"/>
+      <c r="C116" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D116" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E116" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F116" s="28">
+        <v>5</v>
+      </c>
+      <c r="G116" s="28"/>
+      <c r="H116" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J116" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K116" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L116" s="14">
+        <v>2</v>
+      </c>
+      <c r="M116" s="14"/>
+      <c r="O116" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B117" s="13"/>
+      <c r="C117" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D117" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E117" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F117" s="28">
+        <v>6</v>
+      </c>
+      <c r="G117" s="28"/>
+      <c r="H117" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I117" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J117" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K117" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L117" s="14">
+        <v>2</v>
+      </c>
+      <c r="M117" s="14"/>
+      <c r="O117" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B118" s="13"/>
+      <c r="C118" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D118" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E118" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F118" s="28">
+        <v>1</v>
+      </c>
+      <c r="G118" s="28"/>
+      <c r="H118" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I118" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J118" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K118" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L118" s="14">
+        <v>3</v>
+      </c>
+      <c r="M118" s="14"/>
+      <c r="O118" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B119" s="13"/>
+      <c r="C119" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D119" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E119" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="F119" s="28">
+        <v>2</v>
+      </c>
+      <c r="G119" s="28"/>
+      <c r="H119" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I119" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J119" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K119" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L119" s="14">
+        <v>3</v>
+      </c>
+      <c r="M119" s="14"/>
+      <c r="O119" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B120" s="13"/>
+      <c r="C120" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D120" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E120" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" s="28">
+        <v>3</v>
+      </c>
+      <c r="G120" s="28"/>
+      <c r="H120" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I120" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J120" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K120" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L120" s="14">
+        <v>3</v>
+      </c>
+      <c r="M120" s="14"/>
+      <c r="O120" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B121" s="13"/>
+      <c r="C121" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D121" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E121" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F121" s="28">
+        <v>1</v>
+      </c>
+      <c r="G121" s="28"/>
+      <c r="H121" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I121" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J121" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K121" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L121" s="14">
+        <v>1</v>
+      </c>
+      <c r="M121" s="14"/>
+      <c r="O121" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B122" s="13"/>
+      <c r="C122" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D122" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E122" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F122" s="28">
+        <v>2</v>
+      </c>
+      <c r="G122" s="28"/>
+      <c r="H122" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I122" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J122" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K122" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L122" s="14">
+        <v>1</v>
+      </c>
+      <c r="M122" s="14"/>
+      <c r="O122" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B123" s="13"/>
+      <c r="C123" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D123" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E123" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F123" s="28">
+        <v>3</v>
+      </c>
+      <c r="G123" s="28"/>
+      <c r="H123" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I123" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J123" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K123" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L123" s="14">
+        <v>1</v>
+      </c>
+      <c r="M123" s="14"/>
+      <c r="O123" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B124" s="13"/>
+      <c r="C124" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D124" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E124" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F124" s="28">
+        <v>4</v>
+      </c>
+      <c r="G124" s="28"/>
+      <c r="H124" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I124" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J124" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K124" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L124" s="14">
+        <v>1</v>
+      </c>
+      <c r="M124" s="14"/>
+      <c r="O124" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B125" s="13"/>
+      <c r="C125" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D125" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E125" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="F125" s="28">
+        <v>5</v>
+      </c>
+      <c r="G125" s="28"/>
+      <c r="H125" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I125" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J125" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K125" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L125" s="14">
+        <v>1</v>
+      </c>
+      <c r="M125" s="14"/>
+      <c r="O125" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B126" s="13"/>
+      <c r="C126" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D126" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E126" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="F126" s="28">
+        <v>1</v>
+      </c>
+      <c r="G126" s="28"/>
+      <c r="H126" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I126" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J126" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K126" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L126" s="14">
+        <v>2</v>
+      </c>
+      <c r="M126" s="14"/>
+      <c r="O126" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B127" s="13"/>
+      <c r="C127" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D127" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E127" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F127" s="28">
+        <v>2</v>
+      </c>
+      <c r="G127" s="28"/>
+      <c r="H127" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I127" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J127" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K127" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L127" s="14">
+        <v>2</v>
+      </c>
+      <c r="M127" s="14"/>
+      <c r="O127" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B128" s="13"/>
+      <c r="C128" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D128" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E128" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="F128" s="28">
+        <v>3</v>
+      </c>
+      <c r="G128" s="28"/>
+      <c r="H128" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I128" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J128" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K128" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L128" s="14">
+        <v>2</v>
+      </c>
+      <c r="M128" s="14"/>
+      <c r="O128" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B129" s="13"/>
+      <c r="C129" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D129" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E129" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F129" s="28">
+        <v>4</v>
+      </c>
+      <c r="G129" s="28"/>
+      <c r="H129" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I129" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J129" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K129" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L129" s="14">
+        <v>2</v>
+      </c>
+      <c r="M129" s="14"/>
+      <c r="O129" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B130" s="13"/>
+      <c r="C130" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D130" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E130" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F130" s="28">
+        <v>5</v>
+      </c>
+      <c r="G130" s="28"/>
+      <c r="H130" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I130" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J130" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K130" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L130" s="14">
+        <v>2</v>
+      </c>
+      <c r="M130" s="14"/>
+      <c r="O130" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B131" s="13"/>
+      <c r="C131" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D131" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E131" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F131" s="28">
+        <v>6</v>
+      </c>
+      <c r="G131" s="28"/>
+      <c r="H131" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I131" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J131" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K131" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L131" s="14">
+        <v>2</v>
+      </c>
+      <c r="M131" s="14"/>
+      <c r="O131" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B132" s="13"/>
+      <c r="C132" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D132" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E132" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F132" s="28">
+        <v>1</v>
+      </c>
+      <c r="G132" s="28"/>
+      <c r="H132" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I132" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J132" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K132" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L132" s="14">
+        <v>3</v>
+      </c>
+      <c r="M132" s="14"/>
+      <c r="O132" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B133" s="13"/>
+      <c r="C133" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D133" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E133" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="F133" s="28">
+        <v>2</v>
+      </c>
+      <c r="G133" s="28"/>
+      <c r="H133" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I133" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J133" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K133" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L133" s="14">
+        <v>3</v>
+      </c>
+      <c r="M133" s="14"/>
+      <c r="O133" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B134" s="13"/>
+      <c r="C134" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D134" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E134" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="F134" s="28">
+        <v>3</v>
+      </c>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I134" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J134" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K134" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L134" s="14">
+        <v>3</v>
+      </c>
+      <c r="M134" s="14"/>
+      <c r="O134" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A91">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A134">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B91">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B134">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -10855,10 +14340,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10929,7 +14414,7 @@
       </c>
       <c r="B4" s="22"/>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>134</v>
@@ -10947,7 +14432,7 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>134</v>
@@ -10959,15 +14444,33 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F5">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F6">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A5">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A6">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B5">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B6">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -10980,7 +14483,7 @@
           <x14:formula1>
             <xm:f>CaseField!$D$4:$D$35</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D5</xm:sqref>
+          <xm:sqref>D4:D6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/aat/src/resource/CCD_CNP_27_CaseType_Security_Classification_Test.xlsx
+++ b/aat/src/resource/CCD_CNP_27_CaseType_Security_Classification_Test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CCD AM Integration\ccd-definition-store\aat\src\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CCD AM Integration\ccd-docker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="29180" windowHeight="16620" tabRatio="823" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="29180" windowHeight="16620" tabRatio="823" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="281">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -896,13 +896,13 @@
     <t>AUTOTEST2</t>
   </si>
   <si>
-    <t>caseworker-AUTOTEST2</t>
-  </si>
-  <si>
     <t>Auto Test 2</t>
   </si>
   <si>
     <t>RESTRICTED</t>
+  </si>
+  <si>
+    <t>caseworker-autotest2</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1834,7 @@
         <v>277</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>24</v>
@@ -1863,7 +1863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3979,7 +3979,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4044,7 +4044,7 @@
         <v>274</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>124</v>
@@ -4059,7 +4059,7 @@
         <v>275</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>124</v>
@@ -4074,7 +4074,7 @@
         <v>276</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>124</v>
@@ -4174,7 +4174,7 @@
         <v>184</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F4" s="74" t="s">
         <v>124</v>
@@ -4192,7 +4192,7 @@
         <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F5" s="74" t="s">
         <v>124</v>
@@ -4210,7 +4210,7 @@
         <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F6" s="74" t="s">
         <v>124</v>
@@ -4228,7 +4228,7 @@
         <v>184</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F7" s="74" t="s">
         <v>124</v>
@@ -4246,7 +4246,7 @@
         <v>185</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F8" s="74" t="s">
         <v>124</v>
@@ -4264,7 +4264,7 @@
         <v>188</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F9" s="74" t="s">
         <v>124</v>
@@ -4282,7 +4282,7 @@
         <v>184</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F10" s="74" t="s">
         <v>124</v>
@@ -4300,7 +4300,7 @@
         <v>185</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F11" s="74" t="s">
         <v>124</v>
@@ -4318,7 +4318,7 @@
         <v>188</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F12" s="74" t="s">
         <v>124</v>
@@ -4415,7 +4415,7 @@
         <v>189</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>124</v>
@@ -4432,7 +4432,7 @@
         <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>124</v>
@@ -4449,7 +4449,7 @@
         <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>124</v>
@@ -4466,7 +4466,7 @@
         <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>124</v>
@@ -4483,7 +4483,7 @@
         <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>124</v>
@@ -4500,7 +4500,7 @@
         <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>124</v>
@@ -4517,7 +4517,7 @@
         <v>189</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>124</v>
@@ -4534,7 +4534,7 @@
         <v>191</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>124</v>
@@ -4551,7 +4551,7 @@
         <v>193</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>124</v>
@@ -4568,7 +4568,7 @@
         <v>195</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>124</v>
@@ -4585,7 +4585,7 @@
         <v>197</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>124</v>
@@ -4602,7 +4602,7 @@
         <v>205</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>124</v>
@@ -4620,7 +4620,7 @@
         <v>189</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>124</v>
@@ -4638,7 +4638,7 @@
         <v>191</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>124</v>
@@ -4656,7 +4656,7 @@
         <v>193</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>124</v>
@@ -4674,7 +4674,7 @@
         <v>195</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>124</v>
@@ -4692,7 +4692,7 @@
         <v>197</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>124</v>
@@ -4710,7 +4710,7 @@
         <v>205</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>124</v>
@@ -4731,8 +4731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:C53"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4806,7 +4806,7 @@
         <v>134</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>124</v>
@@ -4823,7 +4823,7 @@
         <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>124</v>
@@ -4840,7 +4840,7 @@
         <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>124</v>
@@ -4857,7 +4857,7 @@
         <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>124</v>
@@ -4874,7 +4874,7 @@
         <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>124</v>
@@ -4891,7 +4891,7 @@
         <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>124</v>
@@ -4908,7 +4908,7 @@
         <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>124</v>
@@ -4925,7 +4925,7 @@
         <v>242</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>124</v>
@@ -4942,7 +4942,7 @@
         <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>124</v>
@@ -4959,7 +4959,7 @@
         <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>124</v>
@@ -4976,7 +4976,7 @@
         <v>169</v>
       </c>
       <c r="E14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>124</v>
@@ -4993,7 +4993,7 @@
         <v>238</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>124</v>
@@ -5011,7 +5011,7 @@
         <v>235</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>124</v>
@@ -5028,7 +5028,7 @@
         <v>224</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>124</v>
@@ -5046,7 +5046,7 @@
         <v>246</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>124</v>
@@ -5063,7 +5063,7 @@
         <v>250</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>124</v>
@@ -5080,7 +5080,7 @@
         <v>261</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>124</v>
@@ -5097,7 +5097,7 @@
         <v>134</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>124</v>
@@ -5114,7 +5114,7 @@
         <v>136</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>124</v>
@@ -5131,7 +5131,7 @@
         <v>138</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>124</v>
@@ -5148,7 +5148,7 @@
         <v>143</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>124</v>
@@ -5165,7 +5165,7 @@
         <v>145</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>124</v>
@@ -5182,7 +5182,7 @@
         <v>149</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>124</v>
@@ -5199,7 +5199,7 @@
         <v>157</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>124</v>
@@ -5216,7 +5216,7 @@
         <v>242</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>124</v>
@@ -5233,7 +5233,7 @@
         <v>155</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>124</v>
@@ -5250,7 +5250,7 @@
         <v>159</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>124</v>
@@ -5267,7 +5267,7 @@
         <v>169</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>124</v>
@@ -5284,7 +5284,7 @@
         <v>238</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>124</v>
@@ -5301,7 +5301,7 @@
         <v>235</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>124</v>
@@ -5318,7 +5318,7 @@
         <v>224</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>124</v>
@@ -5335,7 +5335,7 @@
         <v>250</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>124</v>
@@ -5352,7 +5352,7 @@
         <v>261</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>124</v>
@@ -5370,7 +5370,7 @@
         <v>134</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>124</v>
@@ -5388,7 +5388,7 @@
         <v>136</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>124</v>
@@ -5406,7 +5406,7 @@
         <v>138</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>124</v>
@@ -5424,7 +5424,7 @@
         <v>143</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>124</v>
@@ -5442,7 +5442,7 @@
         <v>145</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>124</v>
@@ -5460,7 +5460,7 @@
         <v>149</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>124</v>
@@ -5478,7 +5478,7 @@
         <v>157</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>124</v>
@@ -5496,7 +5496,7 @@
         <v>242</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F44" s="24" t="s">
         <v>124</v>
@@ -5514,7 +5514,7 @@
         <v>155</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>124</v>
@@ -5532,7 +5532,7 @@
         <v>159</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>124</v>
@@ -5550,7 +5550,7 @@
         <v>169</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>124</v>
@@ -5568,7 +5568,7 @@
         <v>238</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>124</v>
@@ -5586,7 +5586,7 @@
         <v>235</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>124</v>
@@ -5604,7 +5604,7 @@
         <v>224</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F50" s="24" t="s">
         <v>124</v>
@@ -5622,7 +5622,7 @@
         <v>246</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F51" s="24" t="s">
         <v>124</v>
@@ -5640,7 +5640,7 @@
         <v>250</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F52" s="24" t="s">
         <v>124</v>
@@ -5658,7 +5658,7 @@
         <v>261</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F53" s="24" t="s">
         <v>124</v>
@@ -5768,7 +5768,7 @@
         <v>214</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G4" s="81" t="s">
         <v>124</v>
@@ -5788,7 +5788,7 @@
         <v>216</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G5" s="81" t="s">
         <v>124</v>
@@ -5808,7 +5808,7 @@
         <v>222</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G6" s="81" t="s">
         <v>124</v>
@@ -5828,7 +5828,7 @@
         <v>214</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G7" s="81" t="s">
         <v>124</v>
@@ -5848,7 +5848,7 @@
         <v>216</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G8" s="81" t="s">
         <v>124</v>
@@ -5868,7 +5868,7 @@
         <v>222</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G9" s="81" t="s">
         <v>124</v>
@@ -5888,7 +5888,7 @@
         <v>214</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G10" s="81" t="s">
         <v>124</v>
@@ -5908,7 +5908,7 @@
         <v>216</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G11" s="81" t="s">
         <v>124</v>
@@ -5928,7 +5928,7 @@
         <v>222</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G12" s="81" t="s">
         <v>124</v>
@@ -5944,7 +5944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -6096,7 +6096,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -6120,10 +6120,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="G34" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37:K52"/>
+    <sheetView topLeftCell="G36" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7090,7 +7090,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>42736</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>42736</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>42736</v>
       </c>
@@ -7157,20 +7157,18 @@
         <v>275</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>254</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="H35" s="42"/>
       <c r="I35" s="28" t="s">
         <v>26</v>
       </c>
@@ -7179,7 +7177,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>42736</v>
       </c>
@@ -7188,18 +7186,20 @@
         <v>275</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="G36" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="H36" s="42"/>
+        <v>252</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>254</v>
+      </c>
       <c r="I36" s="28" t="s">
         <v>26</v>
       </c>
@@ -7208,36 +7208,38 @@
         <v>273</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>42736</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="28"/>
+        <v>275</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="H37" s="42"/>
       <c r="I37" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="28"/>
       <c r="K37" s="28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>42736</v>
       </c>
@@ -7246,16 +7248,16 @@
         <v>276</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H38" s="28"/>
       <c r="I38" s="28" t="s">
@@ -7263,10 +7265,10 @@
       </c>
       <c r="J38" s="28"/>
       <c r="K38" s="28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>42736</v>
       </c>
@@ -7275,16 +7277,16 @@
         <v>276</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="G39" s="42" t="s">
-        <v>30</v>
+        <v>141</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="28" t="s">
@@ -7292,10 +7294,10 @@
       </c>
       <c r="J39" s="28"/>
       <c r="K39" s="28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>42736</v>
       </c>
@@ -7303,17 +7305,17 @@
       <c r="C40" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="D40" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>147</v>
+      <c r="D40" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="28" t="s">
@@ -7321,10 +7323,10 @@
       </c>
       <c r="J40" s="28"/>
       <c r="K40" s="28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>42736</v>
       </c>
@@ -7333,16 +7335,16 @@
         <v>276</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="H41" s="28"/>
       <c r="I41" s="28" t="s">
@@ -7350,10 +7352,10 @@
       </c>
       <c r="J41" s="28"/>
       <c r="K41" s="28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>42736</v>
       </c>
@@ -7362,16 +7364,16 @@
         <v>276</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="28" t="s">
@@ -7379,10 +7381,10 @@
       </c>
       <c r="J42" s="28"/>
       <c r="K42" s="28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>42736</v>
       </c>
@@ -7391,16 +7393,16 @@
         <v>276</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="H43" s="28"/>
       <c r="I43" s="28" t="s">
@@ -7408,10 +7410,10 @@
       </c>
       <c r="J43" s="28"/>
       <c r="K43" s="28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>42736</v>
       </c>
@@ -7420,16 +7422,16 @@
         <v>276</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="H44" s="28"/>
       <c r="I44" s="28" t="s">
@@ -7437,10 +7439,10 @@
       </c>
       <c r="J44" s="28"/>
       <c r="K44" s="28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>42736</v>
       </c>
@@ -7449,16 +7451,16 @@
         <v>276</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>158</v>
+        <v>244</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="H45" s="28"/>
       <c r="I45" s="28" t="s">
@@ -7466,10 +7468,10 @@
       </c>
       <c r="J45" s="28"/>
       <c r="K45" s="28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>42736</v>
       </c>
@@ -7478,29 +7480,27 @@
         <v>276</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" s="42" t="s">
-        <v>162</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="H46" s="28"/>
       <c r="I46" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="28"/>
       <c r="K46" s="28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>42736</v>
       </c>
@@ -7509,29 +7509,29 @@
         <v>276</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="H47" s="42" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="I47" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="28"/>
       <c r="K47" s="28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>42736</v>
       </c>
@@ -7540,26 +7540,26 @@
         <v>276</v>
       </c>
       <c r="D48" s="42" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H48" s="42" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="I48" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J48" s="28"/>
       <c r="K48" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7571,24 +7571,26 @@
         <v>276</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="H49" s="42"/>
+        <v>80</v>
+      </c>
+      <c r="H49" s="42" t="s">
+        <v>25</v>
+      </c>
       <c r="I49" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J49" s="28"/>
       <c r="K49" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7600,16 +7602,16 @@
         <v>276</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H50" s="42"/>
       <c r="I50" s="28" t="s">
@@ -7617,7 +7619,7 @@
       </c>
       <c r="J50" s="28"/>
       <c r="K50" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7629,26 +7631,24 @@
         <v>276</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="H51" s="42" t="s">
-        <v>254</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="H51" s="42"/>
       <c r="I51" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J51" s="28"/>
       <c r="K51" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7660,16 +7660,16 @@
         <v>276</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="G52" s="75" t="s">
-        <v>264</v>
+        <v>248</v>
+      </c>
+      <c r="G52" s="42" t="s">
+        <v>249</v>
       </c>
       <c r="H52" s="42"/>
       <c r="I52" s="28" t="s">
@@ -7677,15 +7677,75 @@
       </c>
       <c r="J52" s="28"/>
       <c r="K52" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="H53" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="G54" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="H54" s="42"/>
+      <c r="I54" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A52">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A54">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B52">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B54">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7948,8 +8008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8095,7 +8155,7 @@
         <v>26</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>117</v>
+        <v>279</v>
       </c>
       <c r="M4" s="35"/>
       <c r="N4" s="8"/>
@@ -8127,7 +8187,7 @@
         <v>26</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>117</v>
+        <v>279</v>
       </c>
       <c r="M5" s="35"/>
       <c r="N5" s="8"/>
@@ -8157,7 +8217,7 @@
         <v>26</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>117</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8187,7 +8247,7 @@
         <v>26</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>117</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8215,7 +8275,7 @@
         <v>26</v>
       </c>
       <c r="L8" s="42" t="s">
-        <v>117</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -9109,7 +9169,7 @@
         <v>184</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="24" t="s">
         <v>73</v>
@@ -9140,7 +9200,7 @@
         <v>185</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="24" t="s">
         <v>73</v>
@@ -9171,7 +9231,7 @@
         <v>184</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="24" t="s">
         <v>73</v>
@@ -9202,7 +9262,7 @@
         <v>188</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q19" s="24" t="s">
         <v>73</v>
@@ -9233,7 +9293,7 @@
         <v>199</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="24" t="s">
         <v>73</v>
@@ -9264,7 +9324,7 @@
         <v>199</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q21" s="24" t="s">
         <v>26</v>

--- a/aat/src/resource/CCD_CNP_27_CaseType_Security_Classification_Test.xlsx
+++ b/aat/src/resource/CCD_CNP_27_CaseType_Security_Classification_Test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CCD AM Integration\ccd-docker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CCD AM Integration\ccd-definition-store\aat\src\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="29180" windowHeight="16620" tabRatio="823" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="29180" windowHeight="16620" tabRatio="823" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="280">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -893,16 +893,13 @@
     <t>AATRESTRICTED</t>
   </si>
   <si>
-    <t>AUTOTEST2</t>
-  </si>
-  <si>
-    <t>Auto Test 2</t>
-  </si>
-  <si>
     <t>RESTRICTED</t>
   </si>
   <si>
-    <t>caseworker-autotest2</t>
+    <t>AUTOTEST1</t>
+  </si>
+  <si>
+    <t>caseworker-autotest1</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1765,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1831,9 +1828,9 @@
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>278</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2440,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:C52"/>
+    <sheetView topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3951,7 +3948,7 @@
         <v>233</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>274</v>
@@ -4044,7 +4041,7 @@
         <v>274</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>124</v>
@@ -4059,7 +4056,7 @@
         <v>275</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>124</v>
@@ -4074,7 +4071,7 @@
         <v>276</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>124</v>
@@ -4095,8 +4092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4174,7 +4171,7 @@
         <v>184</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F4" s="74" t="s">
         <v>124</v>
@@ -4192,7 +4189,7 @@
         <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F5" s="74" t="s">
         <v>124</v>
@@ -4210,7 +4207,7 @@
         <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F6" s="74" t="s">
         <v>124</v>
@@ -4228,7 +4225,7 @@
         <v>184</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F7" s="74" t="s">
         <v>124</v>
@@ -4246,7 +4243,7 @@
         <v>185</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F8" s="74" t="s">
         <v>124</v>
@@ -4264,7 +4261,7 @@
         <v>188</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F9" s="74" t="s">
         <v>124</v>
@@ -4282,7 +4279,7 @@
         <v>184</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F10" s="74" t="s">
         <v>124</v>
@@ -4300,7 +4297,7 @@
         <v>185</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F11" s="74" t="s">
         <v>124</v>
@@ -4318,7 +4315,7 @@
         <v>188</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F12" s="74" t="s">
         <v>124</v>
@@ -4415,7 +4412,7 @@
         <v>189</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>124</v>
@@ -4432,7 +4429,7 @@
         <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>124</v>
@@ -4449,7 +4446,7 @@
         <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>124</v>
@@ -4466,7 +4463,7 @@
         <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>124</v>
@@ -4483,7 +4480,7 @@
         <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>124</v>
@@ -4500,7 +4497,7 @@
         <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>124</v>
@@ -4517,7 +4514,7 @@
         <v>189</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>124</v>
@@ -4534,7 +4531,7 @@
         <v>191</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>124</v>
@@ -4551,7 +4548,7 @@
         <v>193</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>124</v>
@@ -4568,7 +4565,7 @@
         <v>195</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>124</v>
@@ -4585,7 +4582,7 @@
         <v>197</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>124</v>
@@ -4602,7 +4599,7 @@
         <v>205</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>124</v>
@@ -4620,7 +4617,7 @@
         <v>189</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>124</v>
@@ -4638,7 +4635,7 @@
         <v>191</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>124</v>
@@ -4656,7 +4653,7 @@
         <v>193</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>124</v>
@@ -4674,7 +4671,7 @@
         <v>195</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>124</v>
@@ -4692,7 +4689,7 @@
         <v>197</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>124</v>
@@ -4710,7 +4707,7 @@
         <v>205</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>124</v>
@@ -4806,7 +4803,7 @@
         <v>134</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>124</v>
@@ -4823,7 +4820,7 @@
         <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>124</v>
@@ -4840,7 +4837,7 @@
         <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>124</v>
@@ -4857,7 +4854,7 @@
         <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>124</v>
@@ -4874,7 +4871,7 @@
         <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>124</v>
@@ -4891,7 +4888,7 @@
         <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>124</v>
@@ -4908,7 +4905,7 @@
         <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>124</v>
@@ -4925,7 +4922,7 @@
         <v>242</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>124</v>
@@ -4942,7 +4939,7 @@
         <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>124</v>
@@ -4959,7 +4956,7 @@
         <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>124</v>
@@ -4976,7 +4973,7 @@
         <v>169</v>
       </c>
       <c r="E14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>124</v>
@@ -4993,7 +4990,7 @@
         <v>238</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>124</v>
@@ -5011,7 +5008,7 @@
         <v>235</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>124</v>
@@ -5028,7 +5025,7 @@
         <v>224</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>124</v>
@@ -5046,7 +5043,7 @@
         <v>246</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>124</v>
@@ -5063,7 +5060,7 @@
         <v>250</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>124</v>
@@ -5080,7 +5077,7 @@
         <v>261</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>124</v>
@@ -5097,7 +5094,7 @@
         <v>134</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>124</v>
@@ -5114,7 +5111,7 @@
         <v>136</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>124</v>
@@ -5131,7 +5128,7 @@
         <v>138</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>124</v>
@@ -5148,7 +5145,7 @@
         <v>143</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>124</v>
@@ -5165,7 +5162,7 @@
         <v>145</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>124</v>
@@ -5182,7 +5179,7 @@
         <v>149</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>124</v>
@@ -5199,7 +5196,7 @@
         <v>157</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>124</v>
@@ -5216,7 +5213,7 @@
         <v>242</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>124</v>
@@ -5233,7 +5230,7 @@
         <v>155</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>124</v>
@@ -5250,7 +5247,7 @@
         <v>159</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>124</v>
@@ -5267,7 +5264,7 @@
         <v>169</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>124</v>
@@ -5284,7 +5281,7 @@
         <v>238</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>124</v>
@@ -5301,7 +5298,7 @@
         <v>235</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>124</v>
@@ -5318,7 +5315,7 @@
         <v>224</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>124</v>
@@ -5335,7 +5332,7 @@
         <v>250</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>124</v>
@@ -5352,7 +5349,7 @@
         <v>261</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>124</v>
@@ -5370,7 +5367,7 @@
         <v>134</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>124</v>
@@ -5388,7 +5385,7 @@
         <v>136</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>124</v>
@@ -5406,7 +5403,7 @@
         <v>138</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>124</v>
@@ -5424,7 +5421,7 @@
         <v>143</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>124</v>
@@ -5442,7 +5439,7 @@
         <v>145</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>124</v>
@@ -5460,7 +5457,7 @@
         <v>149</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>124</v>
@@ -5478,7 +5475,7 @@
         <v>157</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>124</v>
@@ -5496,7 +5493,7 @@
         <v>242</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F44" s="24" t="s">
         <v>124</v>
@@ -5514,7 +5511,7 @@
         <v>155</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>124</v>
@@ -5532,7 +5529,7 @@
         <v>159</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>124</v>
@@ -5550,7 +5547,7 @@
         <v>169</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>124</v>
@@ -5568,7 +5565,7 @@
         <v>238</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>124</v>
@@ -5586,7 +5583,7 @@
         <v>235</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>124</v>
@@ -5604,7 +5601,7 @@
         <v>224</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F50" s="24" t="s">
         <v>124</v>
@@ -5622,7 +5619,7 @@
         <v>246</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F51" s="24" t="s">
         <v>124</v>
@@ -5640,7 +5637,7 @@
         <v>250</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F52" s="24" t="s">
         <v>124</v>
@@ -5658,7 +5655,7 @@
         <v>261</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F53" s="24" t="s">
         <v>124</v>
@@ -5768,7 +5765,7 @@
         <v>214</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G4" s="81" t="s">
         <v>124</v>
@@ -5788,7 +5785,7 @@
         <v>216</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G5" s="81" t="s">
         <v>124</v>
@@ -5808,7 +5805,7 @@
         <v>222</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G6" s="81" t="s">
         <v>124</v>
@@ -5828,7 +5825,7 @@
         <v>214</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G7" s="81" t="s">
         <v>124</v>
@@ -5848,7 +5845,7 @@
         <v>216</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G8" s="81" t="s">
         <v>124</v>
@@ -5868,7 +5865,7 @@
         <v>222</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G9" s="81" t="s">
         <v>124</v>
@@ -5888,7 +5885,7 @@
         <v>214</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G10" s="81" t="s">
         <v>124</v>
@@ -5908,7 +5905,7 @@
         <v>216</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G11" s="81" t="s">
         <v>124</v>
@@ -5928,7 +5925,7 @@
         <v>222</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G12" s="81" t="s">
         <v>124</v>
@@ -5945,7 +5942,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6049,7 +6046,7 @@
         <v>234</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I4" t="s">
         <v>117</v>
@@ -6070,7 +6067,7 @@
         <v>234</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>273</v>
@@ -6091,12 +6088,12 @@
         <v>234</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -7265,7 +7262,7 @@
       </c>
       <c r="J38" s="28"/>
       <c r="K38" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7294,7 +7291,7 @@
       </c>
       <c r="J39" s="28"/>
       <c r="K39" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7323,7 +7320,7 @@
       </c>
       <c r="J40" s="28"/>
       <c r="K40" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7352,7 +7349,7 @@
       </c>
       <c r="J41" s="28"/>
       <c r="K41" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7381,7 +7378,7 @@
       </c>
       <c r="J42" s="28"/>
       <c r="K42" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7410,7 +7407,7 @@
       </c>
       <c r="J43" s="28"/>
       <c r="K43" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7439,7 +7436,7 @@
       </c>
       <c r="J44" s="28"/>
       <c r="K44" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7468,7 +7465,7 @@
       </c>
       <c r="J45" s="28"/>
       <c r="K45" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7497,7 +7494,7 @@
       </c>
       <c r="J46" s="28"/>
       <c r="K46" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7528,7 +7525,7 @@
       </c>
       <c r="J47" s="28"/>
       <c r="K47" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7559,7 +7556,7 @@
       </c>
       <c r="J48" s="28"/>
       <c r="K48" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7590,7 +7587,7 @@
       </c>
       <c r="J49" s="28"/>
       <c r="K49" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7619,7 +7616,7 @@
       </c>
       <c r="J50" s="28"/>
       <c r="K50" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7648,7 +7645,7 @@
       </c>
       <c r="J51" s="28"/>
       <c r="K51" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7677,7 +7674,7 @@
       </c>
       <c r="J52" s="28"/>
       <c r="K52" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7708,7 +7705,7 @@
       </c>
       <c r="J53" s="28"/>
       <c r="K53" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7737,7 +7734,7 @@
       </c>
       <c r="J54" s="28"/>
       <c r="K54" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -8008,7 +8005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -8155,7 +8152,7 @@
         <v>26</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M4" s="35"/>
       <c r="N4" s="8"/>
@@ -8187,7 +8184,7 @@
         <v>26</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M5" s="35"/>
       <c r="N5" s="8"/>
@@ -8217,7 +8214,7 @@
         <v>26</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8247,7 +8244,7 @@
         <v>26</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8275,7 +8272,7 @@
         <v>26</v>
       </c>
       <c r="L8" s="42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -9169,7 +9166,7 @@
         <v>184</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="24" t="s">
         <v>73</v>
@@ -9200,7 +9197,7 @@
         <v>185</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="24" t="s">
         <v>73</v>
@@ -9231,7 +9228,7 @@
         <v>184</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q18" s="24" t="s">
         <v>73</v>
@@ -9262,7 +9259,7 @@
         <v>188</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="24" t="s">
         <v>73</v>
@@ -9293,7 +9290,7 @@
         <v>199</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="24" t="s">
         <v>73</v>
@@ -9324,7 +9321,7 @@
         <v>199</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q21" s="24" t="s">
         <v>26</v>
@@ -9356,7 +9353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView topLeftCell="H133" workbookViewId="0">
+    <sheetView topLeftCell="H79" workbookViewId="0">
       <selection activeCell="M127" sqref="M127"/>
     </sheetView>
   </sheetViews>
